--- a/legislator/property/output/normal/楊曜_2012-04-20_財產申報表_tmpcdc61.xlsx
+++ b/legislator/property/output/normal/楊曜_2012-04-20_財產申報表_tmpcdc61.xlsx
@@ -20,9 +20,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="90">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="107">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>澎湖縣馬公市埕西段06620000地號</t>
+  </si>
+  <si>
+    <t>澎湖縣西嶼鄉合界頭段01330000地號</t>
+  </si>
+  <si>
+    <t>澎湖縣西嶼鄉合界頭段01330001地號</t>
+  </si>
+  <si>
+    <t>澎湖縣西嶼鄉合界頭段01340000地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>3分之1</t>
+  </si>
+  <si>
+    <t>林君倩</t>
+  </si>
+  <si>
+    <t>楊曜</t>
+  </si>
+  <si>
+    <t>97年03月06日</t>
+  </si>
+  <si>
+    <t>94年01月02日</t>
+  </si>
+  <si>
+    <t>94年01月18日</t>
+  </si>
+  <si>
+    <t>83年04月06日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-20</t>
+  </si>
+  <si>
+    <t>tmpcdc61</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -43,52 +139,7 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>澎湖縣馬公市埕西段0662-0000 地號</t>
-  </si>
-  <si>
-    <t>澎湖縣西嶼鄉合界頭段 0133-0000 地號</t>
-  </si>
-  <si>
-    <t>澎湖縣西嶼鄉合界頭段 0133-0001 地號</t>
-  </si>
-  <si>
-    <t>澎湖縣西嶼鄉合界頭段 0134-0000 地號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>3分之1</t>
-  </si>
-  <si>
-    <t>林君倩</t>
-  </si>
-  <si>
-    <t>楊曜</t>
-  </si>
-  <si>
-    <t>97年03月 06日</t>
-  </si>
-  <si>
-    <t>94年01月 02日</t>
-  </si>
-  <si>
-    <t>94年01月 18日</t>
-  </si>
-  <si>
-    <t>83年04月 06日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>澎湖縣馬公市埕西段00662-000 建號</t>
+    <t>澎湖縣馬公市埕西段00662000建號</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -100,10 +151,10 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>nissan livina</t>
-  </si>
-  <si>
-    <t>99年05月 27日</t>
+    <t>nissanlivina</t>
+  </si>
+  <si>
+    <t>99年05月27日</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -118,16 +169,16 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>合作金庫商業銀行澎湖分 行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司台 北復興分行</t>
+    <t>合作金庫商業銀行澎湖分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司台北復興分行</t>
   </si>
   <si>
     <t>澎湖縣農會本會</t>
   </si>
   <si>
-    <t>澎湖縣第二信用合作社漁 港分社</t>
+    <t>澎湖縣第二信用合作社漁港分社</t>
   </si>
   <si>
     <t>活期儲蓄存款</t>
@@ -154,28 +205,28 @@
     <t>外幣幣別</t>
   </si>
   <si>
-    <t>富達美國基金美 元</t>
-  </si>
-  <si>
-    <t>貝萊德拉丁美洲 基金美元</t>
-  </si>
-  <si>
-    <t>施羅德環球新興 亞洲基金美元</t>
-  </si>
-  <si>
-    <t>貝萊德世界黃金 基金</t>
-  </si>
-  <si>
-    <t>富蘭坦伯頓全球 債券美元</t>
-  </si>
-  <si>
-    <t>貝萊德世界礦業 基金美元</t>
-  </si>
-  <si>
-    <t>富達拉丁美洲基 金美元</t>
-  </si>
-  <si>
-    <t>合作金庫商業 銀行</t>
+    <t>富達美國基金美元</t>
+  </si>
+  <si>
+    <t>貝萊德拉丁美洲基金美元</t>
+  </si>
+  <si>
+    <t>施羅德環球新興亞洲基金美元</t>
+  </si>
+  <si>
+    <t>貝萊德世界黃金基金</t>
+  </si>
+  <si>
+    <t>富蘭坦伯頓全球債券美元</t>
+  </si>
+  <si>
+    <t>貝萊德世界礦業基金美元</t>
+  </si>
+  <si>
+    <t>富達拉丁美洲基金美元</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行</t>
   </si>
   <si>
     <t>所</t>
@@ -190,22 +241,22 @@
     <t>價</t>
   </si>
   <si>
-    <t>(九）珠寶、古董、字畫及革</t>
-  </si>
-  <si>
-    <t>財 產種類</t>
-  </si>
-  <si>
-    <t>-他具有相當價值之財產（總$</t>
-  </si>
-  <si>
-    <t>項 /</t>
+    <t>(九）珠寶古董字畫及革</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總$</t>
+  </si>
+  <si>
+    <t>項</t>
   </si>
   <si>
     <t>件</t>
   </si>
   <si>
-    <t>1額：新臺幣 元）</t>
+    <t>1額：新臺幣元）</t>
   </si>
   <si>
     <t>額</t>
@@ -244,10 +295,10 @@
     <t>添福增額終身壽險十五年期</t>
   </si>
   <si>
-    <t>世紀理財變額萬能終身壽險 二十年期</t>
-  </si>
-  <si>
-    <t>富貴一生终身還本保險十年 期</t>
+    <t>世紀理財變額萬能終身壽險二十年期</t>
+  </si>
+  <si>
+    <t>富貴一生终身還本保險十年期</t>
   </si>
   <si>
     <t>新喜樂養老保險二十年期</t>
@@ -262,7 +313,7 @@
     <t>傳愛增額終身壽險十五年期</t>
   </si>
   <si>
-    <t>吉利長红變額萬能壽險二十 年期</t>
+    <t>吉利長红變額萬能壽險二十年期</t>
   </si>
   <si>
     <t>990831起年繳125400元</t>
@@ -286,10 +337,10 @@
     <t>920508起月繳3864元</t>
   </si>
   <si>
-    <t>920507起月繳5194元(被保 險人--楊◦磊）</t>
-  </si>
-  <si>
-    <t>960808起月繳3000元(被保 險人--楊〇磊）</t>
+    <t>920507起月繳5194元(被保險人楊◦磊）</t>
+  </si>
+  <si>
+    <t>960808起月繳3000元(被保險人楊〇磊）</t>
   </si>
 </sst>
 </file>
@@ -648,13 +699,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -676,109 +727,214 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>70.09</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2">
         <v>721927</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1759</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>69.99</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1759</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>64.33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1759</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>43.66</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1759</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -796,25 +952,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -822,22 +978,22 @@
         <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2">
         <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2">
         <v>3000000</v>
@@ -858,22 +1014,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -881,19 +1037,19 @@
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2">
         <v>1598</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2">
         <v>568000</v>
@@ -914,19 +1070,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -934,16 +1090,16 @@
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2">
         <v>461584</v>
@@ -954,16 +1110,16 @@
         <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2">
         <v>81700</v>
@@ -974,16 +1130,16 @@
         <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2">
         <v>33617</v>
@@ -994,16 +1150,16 @@
         <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2">
         <v>854355</v>
@@ -1024,25 +1180,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1050,13 +1206,13 @@
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E2" s="2">
         <v>1860</v>
@@ -1065,7 +1221,7 @@
         <v>100</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="H2" s="2">
         <v>186000</v>
@@ -1076,13 +1232,13 @@
         <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E3" s="2">
         <v>2290</v>
@@ -1091,7 +1247,7 @@
         <v>100</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="H3" s="2">
         <v>229000</v>
@@ -1102,13 +1258,13 @@
         <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E4" s="2">
         <v>1500</v>
@@ -1117,7 +1273,7 @@
         <v>100</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="H4" s="2">
         <v>150000</v>
@@ -1128,13 +1284,13 @@
         <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E5" s="2">
         <v>1500</v>
@@ -1143,7 +1299,7 @@
         <v>100</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="H5" s="2">
         <v>150000</v>
@@ -1154,13 +1310,13 @@
         <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E6" s="2">
         <v>850</v>
@@ -1169,7 +1325,7 @@
         <v>100</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="H6" s="2">
         <v>85000</v>
@@ -1180,13 +1336,13 @@
         <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E7" s="2">
         <v>1500</v>
@@ -1195,7 +1351,7 @@
         <v>100</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="H7" s="2">
         <v>150000</v>
@@ -1206,13 +1362,13 @@
         <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E8" s="2">
         <v>910</v>
@@ -1221,7 +1377,7 @@
         <v>100</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="H8" s="2">
         <v>91000</v>
@@ -1242,22 +1398,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1265,14 +1421,14 @@
         <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1282,22 +1438,22 @@
         <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1315,16 +1471,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1332,16 +1488,16 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1349,16 +1505,16 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1366,16 +1522,16 @@
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1383,16 +1539,16 @@
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1400,16 +1556,16 @@
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1417,16 +1573,16 @@
         <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1434,16 +1590,16 @@
         <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1451,16 +1607,16 @@
         <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1468,16 +1624,16 @@
         <v>92</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1485,16 +1641,16 @@
         <v>93</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊曜_2012-04-20_財產申報表_tmpcdc61.xlsx
+++ b/legislator/property/output/normal/楊曜_2012-04-20_財產申報表_tmpcdc61.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="84">
   <si>
     <t>name</t>
   </si>
@@ -70,6 +70,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>澎湖縣馬公市埕西段06620000地號</t>
+  </si>
+  <si>
     <t>澎湖縣西嶼鄉合界頭段01330000地號</t>
   </si>
   <si>
@@ -79,12 +82,21 @@
     <t>澎湖縣西嶼鄉合界頭段01340000地號</t>
   </si>
   <si>
+    <t>全部</t>
+  </si>
+  <si>
     <t>3分之1</t>
   </si>
   <si>
+    <t>林君倩</t>
+  </si>
+  <si>
     <t>楊曜</t>
   </si>
   <si>
+    <t>97年03月06日</t>
+  </si>
+  <si>
     <t>94年01月02日</t>
   </si>
   <si>
@@ -113,15 +125,6 @@
   </si>
   <si>
     <t>澎湖縣馬公市埕西段00662000建號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>林君倩</t>
-  </si>
-  <si>
-    <t>97年03月06日</t>
   </si>
   <si>
     <t>nissanlivina</t>
@@ -627,7 +630,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -685,160 +688,213 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>69.99</v>
+        <v>70.09</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="H2" s="2">
+        <v>721927</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M2" s="2">
         <v>1759</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
-        <v>0.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>23.33</v>
+        <v>70.09</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>64.33</v>
+        <v>69.99</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M3" s="2">
         <v>1759</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
         <v>0.333333333333333</v>
       </c>
       <c r="Q3" s="2">
-        <v>21.4433333333333</v>
+        <v>23.33</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>43.66</v>
+        <v>64.33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="M4" s="2">
         <v>1759</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
         <v>0.333333333333333</v>
       </c>
       <c r="Q4" s="2">
+        <v>21.4433333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43.66</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1759</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q5" s="2">
         <v>14.5533333333333</v>
       </c>
     </row>
@@ -849,33 +905,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2">
+        <v>90</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1">
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1759</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="2">
+        <v>22</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
         <v>90</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="1">
-        <v>3000000</v>
       </c>
     </row>
   </sheetData>
@@ -884,321 +1020,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1598</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1">
-        <v>568000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1">
-        <v>461584</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>45</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="2">
-        <v>81700</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>46</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="2">
-        <v>33617</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>47</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="2">
-        <v>854355</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1860</v>
-      </c>
-      <c r="F1" s="1">
-        <v>100</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="1">
-        <v>186000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>65</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="2">
-        <v>2290</v>
-      </c>
-      <c r="F2" s="2">
-        <v>100</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="2">
-        <v>229000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>66</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1500</v>
-      </c>
-      <c r="F3" s="2">
-        <v>100</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="2">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>67</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1500</v>
-      </c>
-      <c r="F4" s="2">
-        <v>100</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="2">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>68</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="2">
-        <v>850</v>
-      </c>
-      <c r="F5" s="2">
-        <v>100</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="2">
-        <v>85000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>69</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1500</v>
-      </c>
-      <c r="F6" s="2">
-        <v>100</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="2">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>70</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="2">
-        <v>910</v>
-      </c>
-      <c r="F7" s="2">
-        <v>100</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="2">
-        <v>91000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1208,39 +1029,440 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1598</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1">
+        <v>568000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1598</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2">
+        <v>568000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1">
+        <v>461584</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2">
+        <v>461584</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2">
+        <v>81700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>46</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2">
+        <v>33617</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>47</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2">
+        <v>854355</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1860</v>
+      </c>
+      <c r="F1" s="1">
+        <v>100</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="1">
+        <v>186000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>64</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1860</v>
+      </c>
+      <c r="F2" s="2">
+        <v>100</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="2">
+        <v>186000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>65</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2290</v>
+      </c>
+      <c r="F3" s="2">
+        <v>100</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="2">
+        <v>229000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>66</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1500</v>
+      </c>
+      <c r="F4" s="2">
+        <v>100</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="2">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>67</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1500</v>
+      </c>
+      <c r="F5" s="2">
+        <v>100</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="2">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>68</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="2">
+        <v>850</v>
+      </c>
+      <c r="F6" s="2">
+        <v>100</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="2">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>69</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1500</v>
+      </c>
+      <c r="F7" s="2">
+        <v>100</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="2">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>70</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="2">
+        <v>910</v>
+      </c>
+      <c r="F8" s="2">
+        <v>100</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="2">
+        <v>91000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>77</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>78</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>59</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1250,7 +1472,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1258,55 +1480,55 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>64</v>
@@ -1315,7 +1537,7 @@
         <v>69</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>76</v>
@@ -1323,7 +1545,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>65</v>
@@ -1332,7 +1554,7 @@
         <v>70</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>77</v>
@@ -1340,16 +1562,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>78</v>
@@ -1357,16 +1579,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>79</v>
@@ -1374,7 +1596,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>66</v>
@@ -1383,7 +1605,7 @@
         <v>73</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>80</v>
@@ -1391,16 +1613,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>81</v>
@@ -1408,7 +1630,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>67</v>
@@ -1417,10 +1639,27 @@
         <v>74</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>93</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊曜_2012-04-20_財產申報表_tmpcdc61.xlsx
+++ b/legislator/property/output/normal/楊曜_2012-04-20_財產申報表_tmpcdc61.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="85">
   <si>
     <t>name</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>澎湖縣馬公市埕西段00662000建號</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>nissanlivina</t>
@@ -1021,38 +1024,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1">
-        <v>1598</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1">
-        <v>568000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2">
         <v>1598</v>
@@ -1061,13 +1085,34 @@
         <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G2" s="2">
         <v>568000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1759</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="2">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1085,13 +1130,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>22</v>
@@ -1105,13 +1150,13 @@
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -1125,13 +1170,13 @@
         <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -1145,13 +1190,13 @@
         <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -1165,13 +1210,13 @@
         <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -1195,13 +1240,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1">
         <v>1860</v>
@@ -1210,7 +1255,7 @@
         <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1">
         <v>186000</v>
@@ -1221,13 +1266,13 @@
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2">
         <v>1860</v>
@@ -1236,7 +1281,7 @@
         <v>100</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2">
         <v>186000</v>
@@ -1247,13 +1292,13 @@
         <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E3" s="2">
         <v>2290</v>
@@ -1262,7 +1307,7 @@
         <v>100</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H3" s="2">
         <v>229000</v>
@@ -1273,13 +1318,13 @@
         <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2">
         <v>1500</v>
@@ -1288,7 +1333,7 @@
         <v>100</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" s="2">
         <v>150000</v>
@@ -1299,13 +1344,13 @@
         <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2">
         <v>1500</v>
@@ -1314,7 +1359,7 @@
         <v>100</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H5" s="2">
         <v>150000</v>
@@ -1325,13 +1370,13 @@
         <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2">
         <v>850</v>
@@ -1340,7 +1385,7 @@
         <v>100</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H6" s="2">
         <v>85000</v>
@@ -1351,13 +1396,13 @@
         <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2">
         <v>1500</v>
@@ -1366,7 +1411,7 @@
         <v>100</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="2">
         <v>150000</v>
@@ -1377,13 +1422,13 @@
         <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2">
         <v>910</v>
@@ -1392,7 +1437,7 @@
         <v>100</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H8" s="2">
         <v>91000</v>
@@ -1413,14 +1458,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1430,16 +1475,16 @@
         <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1447,22 +1492,22 @@
         <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1480,16 +1525,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1497,16 +1542,16 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1514,16 +1559,16 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1531,16 +1576,16 @@
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1548,16 +1593,16 @@
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1565,16 +1610,16 @@
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1582,16 +1627,16 @@
         <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1599,16 +1644,16 @@
         <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1616,16 +1661,16 @@
         <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1633,16 +1678,16 @@
         <v>92</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1650,16 +1695,16 @@
         <v>93</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊曜_2012-04-20_財產申報表_tmpcdc61.xlsx
+++ b/legislator/property/output/normal/楊曜_2012-04-20_財產申報表_tmpcdc61.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="87">
   <si>
     <t>name</t>
   </si>
@@ -127,6 +127,9 @@
     <t>澎湖縣馬公市埕西段00662000建號</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -134,6 +137,9 @@
   </si>
   <si>
     <t>99年05月27日</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>合作金庫商業銀行澎湖分行</t>
@@ -990,7 +996,7 @@
         <v>3000000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>31</v>
@@ -1035,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1076,7 +1082,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2">
         <v>1598</v>
@@ -1085,7 +1091,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>28</v>
@@ -1094,7 +1100,7 @@
         <v>568000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>31</v>
@@ -1130,13 +1136,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>22</v>
@@ -1150,13 +1156,13 @@
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -1170,13 +1176,13 @@
         <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -1190,13 +1196,13 @@
         <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -1210,13 +1216,13 @@
         <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -1240,13 +1246,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1">
         <v>1860</v>
@@ -1255,7 +1261,7 @@
         <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1">
         <v>186000</v>
@@ -1266,13 +1272,13 @@
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2">
         <v>1860</v>
@@ -1281,7 +1287,7 @@
         <v>100</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2">
         <v>186000</v>
@@ -1292,13 +1298,13 @@
         <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2">
         <v>2290</v>
@@ -1307,7 +1313,7 @@
         <v>100</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H3" s="2">
         <v>229000</v>
@@ -1318,13 +1324,13 @@
         <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="E4" s="2">
         <v>1500</v>
@@ -1333,7 +1339,7 @@
         <v>100</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H4" s="2">
         <v>150000</v>
@@ -1344,13 +1350,13 @@
         <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2">
         <v>1500</v>
@@ -1359,7 +1365,7 @@
         <v>100</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H5" s="2">
         <v>150000</v>
@@ -1370,13 +1376,13 @@
         <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2">
         <v>850</v>
@@ -1385,7 +1391,7 @@
         <v>100</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H6" s="2">
         <v>85000</v>
@@ -1396,13 +1402,13 @@
         <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2">
         <v>1500</v>
@@ -1411,7 +1417,7 @@
         <v>100</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H7" s="2">
         <v>150000</v>
@@ -1422,13 +1428,13 @@
         <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2">
         <v>910</v>
@@ -1437,7 +1443,7 @@
         <v>100</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H8" s="2">
         <v>91000</v>
@@ -1458,14 +1464,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1475,16 +1481,16 @@
         <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1492,22 +1498,22 @@
         <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1525,16 +1531,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1542,16 +1548,16 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1559,16 +1565,16 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1576,16 +1582,16 @@
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1593,16 +1599,16 @@
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1610,16 +1616,16 @@
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1627,16 +1633,16 @@
         <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1644,16 +1650,16 @@
         <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1661,16 +1667,16 @@
         <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1678,16 +1684,16 @@
         <v>92</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1695,16 +1701,16 @@
         <v>93</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊曜_2012-04-20_財產申報表_tmpcdc61.xlsx
+++ b/legislator/property/output/normal/楊曜_2012-04-20_財產申報表_tmpcdc61.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="91">
   <si>
     <t>name</t>
   </si>
@@ -142,25 +142,37 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>合作金庫商業銀行澎湖分行</t>
   </si>
   <si>
+    <t>中華郵政股份有限公司台北復興分行</t>
+  </si>
+  <si>
+    <t>澎湖縣農會本會</t>
+  </si>
+  <si>
+    <t>澎湖縣第二信用合作社漁港分社</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司台北復興分行</t>
-  </si>
-  <si>
-    <t>澎湖縣農會本會</t>
-  </si>
-  <si>
-    <t>澎湖縣第二信用合作社漁港分社</t>
-  </si>
-  <si>
-    <t>活期存款</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>富達美國基金美元</t>
@@ -1128,13 +1140,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
@@ -1145,24 +1157,45 @@
         <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1">
-        <v>461584</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -1170,19 +1203,40 @@
       <c r="F2" s="2">
         <v>461584</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1759</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -1190,19 +1244,40 @@
       <c r="F3" s="2">
         <v>81700</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1759</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -1210,25 +1285,67 @@
       <c r="F4" s="2">
         <v>33617</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1759</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="2">
         <v>854355</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1759</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="2">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1246,13 +1363,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1">
         <v>1860</v>
@@ -1261,7 +1378,7 @@
         <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1">
         <v>186000</v>
@@ -1272,13 +1389,13 @@
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2">
         <v>1860</v>
@@ -1287,7 +1404,7 @@
         <v>100</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2">
         <v>186000</v>
@@ -1298,13 +1415,13 @@
         <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2">
         <v>2290</v>
@@ -1313,7 +1430,7 @@
         <v>100</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H3" s="2">
         <v>229000</v>
@@ -1324,13 +1441,13 @@
         <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2">
         <v>1500</v>
@@ -1339,7 +1456,7 @@
         <v>100</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H4" s="2">
         <v>150000</v>
@@ -1350,13 +1467,13 @@
         <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2">
         <v>1500</v>
@@ -1365,7 +1482,7 @@
         <v>100</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H5" s="2">
         <v>150000</v>
@@ -1376,13 +1493,13 @@
         <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="E6" s="2">
         <v>850</v>
@@ -1391,7 +1508,7 @@
         <v>100</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H6" s="2">
         <v>85000</v>
@@ -1402,13 +1519,13 @@
         <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2">
         <v>1500</v>
@@ -1417,7 +1534,7 @@
         <v>100</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H7" s="2">
         <v>150000</v>
@@ -1428,13 +1545,13 @@
         <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E8" s="2">
         <v>910</v>
@@ -1443,7 +1560,7 @@
         <v>100</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H8" s="2">
         <v>91000</v>
@@ -1464,14 +1581,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1481,16 +1598,16 @@
         <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1498,22 +1615,22 @@
         <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1531,16 +1648,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1548,16 +1665,16 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1565,16 +1682,16 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1582,16 +1699,16 @@
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1599,16 +1716,16 @@
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1616,16 +1733,16 @@
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1633,16 +1750,16 @@
         <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1650,16 +1767,16 @@
         <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1667,16 +1784,16 @@
         <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1684,16 +1801,16 @@
         <v>92</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1701,16 +1818,16 @@
         <v>93</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊曜_2012-04-20_財產申報表_tmpcdc61.xlsx
+++ b/legislator/property/output/normal/楊曜_2012-04-20_財產申報表_tmpcdc61.xlsx
@@ -12,15 +12,14 @@
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
     <sheet name="存款" sheetId="4" r:id="rId4"/>
     <sheet name="基金受益憑證" sheetId="5" r:id="rId5"/>
-    <sheet name="其他有價證券" sheetId="6" r:id="rId6"/>
-    <sheet name="保險" sheetId="7" r:id="rId7"/>
+    <sheet name="保險" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="86">
   <si>
     <t>name</t>
   </si>
@@ -175,55 +174,40 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
     <t>富達美國基金美元</t>
   </si>
   <si>
+    <t>貝萊德拉丁美洲基金美元</t>
+  </si>
+  <si>
+    <t>施羅德環球新興亞洲基金美元</t>
+  </si>
+  <si>
+    <t>貝萊德世界黃金基金</t>
+  </si>
+  <si>
+    <t>富蘭坦伯頓全球債券美元</t>
+  </si>
+  <si>
+    <t>貝萊德世界礦業基金美元</t>
+  </si>
+  <si>
+    <t>富達拉丁美洲基金美元</t>
+  </si>
+  <si>
     <t>合作金庫商業銀行</t>
   </si>
   <si>
-    <t>貝萊德拉丁美洲基金美元</t>
-  </si>
-  <si>
-    <t>施羅德環球新興亞洲基金美元</t>
-  </si>
-  <si>
-    <t>貝萊德世界黃金基金</t>
-  </si>
-  <si>
-    <t>富蘭坦伯頓全球債券美元</t>
-  </si>
-  <si>
-    <t>貝萊德世界礦業基金美元</t>
-  </si>
-  <si>
-    <t>富達拉丁美洲基金美元</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字畫及革</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總$</t>
-  </si>
-  <si>
-    <t>1額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>所有人</t>
+    <t>fund</t>
   </si>
   <si>
     <t>國華人壽</t>
@@ -1355,47 +1339,68 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="1">
-        <v>1860</v>
-      </c>
-      <c r="F1" s="1">
-        <v>100</v>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="1">
-        <v>186000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2">
         <v>1860</v>
@@ -1409,19 +1414,40 @@
       <c r="H2" s="2">
         <v>186000</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1759</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2">
         <v>2290</v>
@@ -1435,19 +1461,40 @@
       <c r="H3" s="2">
         <v>229000</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1759</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2">
         <v>1500</v>
@@ -1461,19 +1508,40 @@
       <c r="H4" s="2">
         <v>150000</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1759</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2">
         <v>1500</v>
@@ -1487,19 +1555,40 @@
       <c r="H5" s="2">
         <v>150000</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1759</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E6" s="2">
         <v>850</v>
@@ -1513,19 +1602,40 @@
       <c r="H6" s="2">
         <v>85000</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1759</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E7" s="2">
         <v>1500</v>
@@ -1539,19 +1649,40 @@
       <c r="H7" s="2">
         <v>150000</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1759</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E8" s="2">
         <v>910</v>
@@ -1564,6 +1695,27 @@
       </c>
       <c r="H8" s="2">
         <v>91000</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1759</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" s="2">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1572,73 +1724,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>77</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>78</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -1648,16 +1733,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1665,16 +1750,16 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1682,16 +1767,16 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1699,16 +1784,16 @@
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1716,16 +1801,16 @@
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1733,16 +1818,16 @@
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1750,16 +1835,16 @@
         <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1767,16 +1852,16 @@
         <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1784,16 +1869,16 @@
         <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1801,16 +1886,16 @@
         <v>92</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1818,16 +1903,16 @@
         <v>93</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊曜_2012-04-20_財產申報表_tmpcdc61.xlsx
+++ b/legislator/property/output/normal/楊曜_2012-04-20_財產申報表_tmpcdc61.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="79">
   <si>
     <t>name</t>
   </si>
@@ -210,30 +210,30 @@
     <t>fund</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>國華人壽</t>
   </si>
   <si>
+    <t>三商美邦人壽</t>
+  </si>
+  <si>
+    <t>遠雄人壽</t>
+  </si>
+  <si>
+    <t>富邦人壽</t>
+  </si>
+  <si>
+    <t>蘇黎世國際人壽</t>
+  </si>
+  <si>
+    <t>安聯人壽</t>
+  </si>
+  <si>
     <t>添福增額終身壽險十五年期</t>
   </si>
   <si>
-    <t>990831起年繳125400元</t>
-  </si>
-  <si>
-    <t>三商美邦人壽</t>
-  </si>
-  <si>
-    <t>遠雄人壽</t>
-  </si>
-  <si>
-    <t>富邦人壽</t>
-  </si>
-  <si>
-    <t>蘇黎世國際人壽</t>
-  </si>
-  <si>
-    <t>安聯人壽</t>
-  </si>
-  <si>
     <t>世紀理財變額萬能終身壽險二十年期</t>
   </si>
   <si>
@@ -255,28 +255,7 @@
     <t>吉利長红變額萬能壽險二十年期</t>
   </si>
   <si>
-    <t>951204起月繳5000元</t>
-  </si>
-  <si>
-    <t>990421起月繳5047元</t>
-  </si>
-  <si>
-    <t>950119起月缴3494元</t>
-  </si>
-  <si>
-    <t>900822起月繳3851元</t>
-  </si>
-  <si>
-    <t>940429起月繳3210元</t>
-  </si>
-  <si>
-    <t>920508起月繳3864元</t>
-  </si>
-  <si>
-    <t>920507起月繳5194元(被保險人楊◦磊）</t>
-  </si>
-  <si>
-    <t>960808起月繳3000元(被保險人楊〇磊）</t>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -1725,49 +1704,85 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>78</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1759</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>71</v>
@@ -1778,13 +1793,31 @@
       <c r="E3" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1759</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>71</v>
@@ -1795,13 +1828,31 @@
       <c r="E4" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1759</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>72</v>
@@ -1810,15 +1861,33 @@
         <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>78</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1759</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>73</v>
@@ -1827,15 +1896,33 @@
         <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>78</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1759</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>74</v>
@@ -1844,15 +1931,33 @@
         <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>78</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1759</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>75</v>
@@ -1861,15 +1966,33 @@
         <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>78</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1759</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>76</v>
@@ -1878,15 +2001,33 @@
         <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>78</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1759</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>92</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>76</v>
@@ -1895,15 +2036,33 @@
         <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>78</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1759</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>93</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>77</v>
@@ -1912,7 +2071,25 @@
         <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1759</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="2">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
